--- a/Team-Data/2008-09/1-4-2008-09.xlsx
+++ b/Team-Data/2008-09/1-4-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>3.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
@@ -759,7 +826,7 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -789,13 +856,13 @@
         <v>18</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="n">
         <v>18</v>
       </c>
       <c r="AU2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>9</v>
@@ -804,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="AX2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -813,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -851,94 +918,94 @@
         <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.824</v>
+        <v>0.853</v>
       </c>
       <c r="H3" t="n">
         <v>48.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>75.90000000000001</v>
+        <v>75.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O3" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P3" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.772</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T3" t="n">
-        <v>43.3</v>
+        <v>43</v>
       </c>
       <c r="U3" t="n">
         <v>22.2</v>
       </c>
       <c r="V3" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="AB3" t="n">
         <v>101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.2</v>
+        <v>10.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -953,25 +1020,25 @@
         <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -986,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-2.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -1120,7 +1187,7 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1141,16 +1208,16 @@
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ4" t="n">
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
         <v>29</v>
@@ -1162,7 +1229,7 @@
         <v>26</v>
       </c>
       <c r="AV4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1174,7 +1241,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -1212,127 +1279,127 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.394</v>
+        <v>0.412</v>
       </c>
       <c r="H5" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.384</v>
+        <v>0.385</v>
       </c>
       <c r="O5" t="n">
-        <v>18.5</v>
+        <v>18.9</v>
       </c>
       <c r="P5" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.796</v>
+        <v>0.794</v>
       </c>
       <c r="R5" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.3</v>
+        <v>-3.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>19</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN5" t="n">
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
         <v>13</v>
@@ -1341,13 +1408,13 @@
         <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
         <v>18</v>
       </c>
       <c r="AW5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
@@ -1359,10 +1426,10 @@
         <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -1409,70 +1476,70 @@
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.477</v>
+        <v>0.478</v>
       </c>
       <c r="L6" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
         <v>0.346</v>
       </c>
       <c r="O6" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R6" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.8</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="AC6" t="n">
         <v>12.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,13 +1548,13 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ6" t="n">
         <v>22</v>
@@ -1499,25 +1566,25 @@
         <v>9</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
         <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR6" t="n">
         <v>15</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
         <v>12</v>
@@ -1532,16 +1599,16 @@
         <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -1576,70 +1643,70 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.606</v>
+        <v>0.625</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.8</v>
       </c>
       <c r="J7" t="n">
-        <v>83.5</v>
+        <v>83.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.335</v>
+        <v>0.336</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.804</v>
+        <v>0.805</v>
       </c>
       <c r="R7" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S7" t="n">
-        <v>33.1</v>
+        <v>33.3</v>
       </c>
       <c r="T7" t="n">
-        <v>45</v>
+        <v>45.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z7" t="n">
         <v>18.4</v>
@@ -1648,46 +1715,46 @@
         <v>19.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1696,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>1</v>
@@ -1708,16 +1775,16 @@
         <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1726,10 +1793,10 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,13 +1945,13 @@
         <v>18</v>
       </c>
       <c r="AR8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>0.656</v>
+        <v>0.645</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
@@ -1958,49 +2025,49 @@
         <v>36.1</v>
       </c>
       <c r="J9" t="n">
-        <v>79.09999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R9" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S9" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T9" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U9" t="n">
         <v>20.7</v>
       </c>
       <c r="V9" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W9" t="n">
         <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>4</v>
@@ -2009,19 +2076,19 @@
         <v>21.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
         <v>6</v>
@@ -2036,10 +2103,10 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
         <v>24</v>
@@ -2048,40 +2115,40 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>25</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ9" t="n">
         <v>19</v>
       </c>
       <c r="AR9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU9" t="n">
         <v>14</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -2203,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
@@ -2251,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2461,7 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2424,16 +2491,16 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2442,7 +2509,7 @@
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>23</v>
@@ -2454,10 +2521,10 @@
         <v>13</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2588,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
         <v>11</v>
@@ -2597,10 +2664,10 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2612,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>4</v>
@@ -2633,7 +2700,7 @@
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.242</v>
+        <v>0.25</v>
       </c>
       <c r="H13" t="n">
         <v>48.9</v>
       </c>
       <c r="I13" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J13" t="n">
-        <v>83.7</v>
+        <v>84.2</v>
       </c>
       <c r="K13" t="n">
         <v>0.423</v>
@@ -2695,37 +2762,37 @@
         <v>5.1</v>
       </c>
       <c r="M13" t="n">
-        <v>16.4</v>
+        <v>16.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="O13" t="n">
-        <v>17.6</v>
+        <v>17.3</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.1</v>
       </c>
       <c r="Q13" t="n">
         <v>0.75</v>
       </c>
       <c r="R13" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S13" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T13" t="n">
         <v>42.3</v>
       </c>
       <c r="U13" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V13" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
         <v>6.4</v>
@@ -2734,19 +2801,19 @@
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2761,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
         <v>30</v>
@@ -2773,16 +2840,16 @@
         <v>23</v>
       </c>
       <c r="AM13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2803,7 +2870,7 @@
         <v>17</v>
       </c>
       <c r="AW13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2812,10 +2879,10 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -2865,40 +2932,40 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J14" t="n">
-        <v>83.59999999999999</v>
+        <v>84</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L14" t="n">
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N14" t="n">
-        <v>0.369</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>28.3</v>
+        <v>27.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.9</v>
       </c>
       <c r="U14" t="n">
         <v>23.3</v>
@@ -2916,19 +2983,19 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.6</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2937,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -2949,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL14" t="n">
         <v>15</v>
@@ -2958,25 +3025,25 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>14</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>15</v>
       </c>
       <c r="AR14" t="n">
         <v>6</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -2994,7 +3061,7 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -3032,61 +3099,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>23</v>
       </c>
       <c r="G15" t="n">
-        <v>0.324</v>
+        <v>0.303</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="J15" t="n">
-        <v>78</v>
+        <v>77.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="M15" t="n">
         <v>14.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.332</v>
+        <v>0.328</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.752</v>
       </c>
       <c r="R15" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
         <v>28.5</v>
       </c>
       <c r="T15" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U15" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="V15" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W15" t="n">
         <v>7.4</v>
@@ -3095,22 +3162,22 @@
         <v>4.4</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>94.40000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-4.9</v>
+        <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>24</v>
@@ -3122,7 +3189,7 @@
         <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI15" t="n">
         <v>27</v>
@@ -3140,10 +3207,10 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
@@ -3155,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3167,22 +3234,22 @@
         <v>16</v>
       </c>
       <c r="AW15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>0.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3304,7 +3371,7 @@
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
         <v>22</v>
@@ -3328,7 +3395,7 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
@@ -3340,7 +3407,7 @@
         <v>20</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>25</v>
@@ -3361,7 +3428,7 @@
         <v>15</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>0.471</v>
+        <v>0.457</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,25 +3481,25 @@
         <v>35.9</v>
       </c>
       <c r="J17" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.776</v>
@@ -3441,19 +3508,19 @@
         <v>12.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="T17" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="U17" t="n">
         <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X17" t="n">
         <v>3.6</v>
@@ -3462,31 +3529,31 @@
         <v>5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI17" t="n">
         <v>23</v>
@@ -3498,46 +3565,46 @@
         <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM17" t="n">
         <v>25</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU17" t="n">
         <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3723,22 @@
         <v>-6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
         <v>5</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3680,19 +3747,19 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3725,7 +3792,7 @@
         <v>24</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3853,7 +3920,7 @@
         <v>4</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>12</v>
@@ -3865,10 +3932,10 @@
         <v>6</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3880,7 +3947,7 @@
         <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
         <v>21</v>
@@ -3910,7 +3977,7 @@
         <v>11</v>
       </c>
       <c r="BB19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -4023,7 +4090,7 @@
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
@@ -4071,10 +4138,10 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -4124,100 +4191,100 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
         <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.406</v>
+        <v>0.387</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J21" t="n">
-        <v>86.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="P21" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T21" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V21" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W21" t="n">
         <v>7.4</v>
       </c>
       <c r="X21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4232,34 +4299,34 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>6</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>7</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,7 +4338,7 @@
         <v>7</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>3</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>30</v>
@@ -4453,7 +4520,7 @@
         <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB22" t="n">
         <v>27</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>26</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.765</v>
+        <v>0.788</v>
       </c>
       <c r="H23" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I23" t="n">
         <v>36</v>
       </c>
       <c r="J23" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K23" t="n">
         <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.381</v>
+        <v>0.378</v>
       </c>
       <c r="O23" t="n">
         <v>18.7</v>
       </c>
       <c r="P23" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q23" t="n">
         <v>0.71</v>
       </c>
       <c r="R23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>32.3</v>
+        <v>32.6</v>
       </c>
       <c r="T23" t="n">
-        <v>42.5</v>
+        <v>42.8</v>
       </c>
       <c r="U23" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W23" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y23" t="n">
         <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
@@ -4578,16 +4645,16 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>19</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>2</v>
@@ -4596,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
         <v>7</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4626,7 +4693,7 @@
         <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -4757,7 +4824,7 @@
         <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
         <v>23</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4796,19 +4863,19 @@
         <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
       </c>
       <c r="AV24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW24" t="n">
         <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>21</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4939,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>20</v>
@@ -4978,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -5049,91 +5116,91 @@
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
         <v>79.09999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
         <v>7.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.382</v>
+        <v>0.386</v>
       </c>
       <c r="O26" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="P26" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.777</v>
       </c>
       <c r="R26" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y26" t="n">
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5142,16 +5209,16 @@
         <v>8</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5163,25 +5230,25 @@
         <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV26" t="n">
         <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB26" t="n">
         <v>14</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,7 +5373,7 @@
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5336,7 +5403,7 @@
         <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -5580,70 +5647,70 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
         <v>20</v>
       </c>
       <c r="G29" t="n">
-        <v>0.412</v>
+        <v>0.394</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L29" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="N29" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="O29" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P29" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="R29" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T29" t="n">
         <v>39.3</v>
       </c>
       <c r="U29" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W29" t="n">
         <v>6.5</v>
       </c>
       <c r="X29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
         <v>19.1</v>
@@ -5652,22 +5719,22 @@
         <v>20.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.7</v>
+        <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>19</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>17</v>
@@ -5679,19 +5746,19 @@
         <v>18</v>
       </c>
       <c r="AK29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>24</v>
@@ -5703,34 +5770,34 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
       </c>
       <c r="AU29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV29" t="n">
         <v>8</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>13</v>
@@ -5852,16 +5919,16 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI30" t="n">
         <v>6</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>5</v>
       </c>
       <c r="AJ30" t="n">
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5915,7 +5982,7 @@
         <v>10</v>
       </c>
       <c r="BC30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
@@ -5944,100 +6011,100 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="n">
         <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>0.219</v>
+        <v>0.194</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
       </c>
       <c r="I31" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="N31" t="n">
-        <v>0.305</v>
+        <v>0.307</v>
       </c>
       <c r="O31" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P31" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q31" t="n">
         <v>0.75</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T31" t="n">
-        <v>40.5</v>
+        <v>40.1</v>
       </c>
       <c r="U31" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="V31" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA31" t="n">
         <v>19.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.2</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-6.5</v>
+        <v>-6.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6049,10 +6116,10 @@
         <v>22</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
         <v>29</v>
@@ -6064,22 +6131,22 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AV31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6088,13 +6155,13 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>28</v>
       </c>
       <c r="BB31" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC31" t="n">
         <v>28</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-4-2008-09</t>
+          <t>2009-01-04</t>
         </is>
       </c>
     </row>
